--- a/Data/Input/Companies/Byju.xlsx
+++ b/Data/Input/Companies/Byju.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
   <si>
     <t>GRNumbers</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Min CGPA</t>
+  </si>
+  <si>
+    <t>9.8</t>
   </si>
   <si>
     <t>HR Email</t>
@@ -137,7 +140,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -157,10 +160,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">

--- a/Data/Input/Companies/Byju.xlsx
+++ b/Data/Input/Companies/Byju.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22" count="22">
   <si>
     <t>GRNumbers</t>
   </si>
@@ -21,6 +21,9 @@
     <t>21810691</t>
   </si>
   <si>
+    <t>21810714</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -67,6 +70,15 @@
   </si>
   <si>
     <t>xyz@byju.co.in</t>
+  </si>
+  <si>
+    <t>10th %</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>12th %</t>
   </si>
 </sst>
 </file>
@@ -122,58 +134,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -200,6 +224,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
